--- a/Lab4CPU设计实验/CPU表格.xlsx
+++ b/Lab4CPU设计实验/CPU表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R1#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,13 +70,229 @@
   </si>
   <si>
     <t>运算器ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[25:21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[20:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[15:11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器堆RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[25:21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即数符号位扩展EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[15:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>andi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[20:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[10:6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM[25:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,23 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -433,62 +646,746 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>

--- a/Lab4CPU设计实验/CPU表格.xlsx
+++ b/Lab4CPU设计实验/CPU表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,14 +332,14 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,68 +616,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -702,9 +702,9 @@
       <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -730,7 +730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -834,7 +834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -860,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -886,7 +886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -912,7 +912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -938,7 +938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -964,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -990,7 +990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>60</v>
       </c>

--- a/Lab4CPU设计实验/CPU表格.xlsx
+++ b/Lab4CPU设计实验/CPU表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IM[25:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x1F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,18 +277,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +335,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,22 +612,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -646,7 +642,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -704,7 +700,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -730,7 +726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -756,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -782,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -808,7 +804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -834,7 +830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -860,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -886,7 +882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -912,7 +908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -938,7 +934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -964,7 +960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -990,7 +986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1016,7 +1012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1042,7 +1038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1152,7 +1148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1227,35 +1223,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>63</v>
       </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1269,7 +1265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1277,7 +1273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1323,7 +1319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1366,19 +1362,16 @@
         <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>65</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
